--- a/stock_historical_data/1wk/TATATECH.NS.xlsx
+++ b/stock_historical_data/1wk/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,11 @@
           <t>two_line_structure</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -568,6 +573,9 @@
       <c r="P2" t="n">
         <v>0</v>
       </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -618,6 +626,9 @@
       <c r="P3" t="n">
         <v>0</v>
       </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -668,6 +679,9 @@
       <c r="P4" t="n">
         <v>0</v>
       </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -718,6 +732,9 @@
       <c r="P5" t="n">
         <v>0</v>
       </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -768,6 +785,9 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -818,6 +838,9 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -868,6 +891,9 @@
       <c r="P8" t="n">
         <v>0</v>
       </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -918,6 +944,9 @@
       <c r="P9" t="n">
         <v>0</v>
       </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -968,6 +997,9 @@
       <c r="P10" t="n">
         <v>0</v>
       </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1018,6 +1050,9 @@
       <c r="P11" t="n">
         <v>0</v>
       </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1068,6 +1103,9 @@
       <c r="P12" t="n">
         <v>0</v>
       </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1118,6 +1156,9 @@
       <c r="P13" t="n">
         <v>0</v>
       </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1168,6 +1209,9 @@
       <c r="P14" t="n">
         <v>0</v>
       </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1218,6 +1262,9 @@
       <c r="P15" t="n">
         <v>0</v>
       </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1268,6 +1315,9 @@
       <c r="P16" t="n">
         <v>0</v>
       </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1318,6 +1368,9 @@
       <c r="P17" t="n">
         <v>0</v>
       </c>
+      <c r="Q17" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1368,6 +1421,9 @@
       <c r="P18" t="n">
         <v>0</v>
       </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1418,6 +1474,9 @@
       <c r="P19" t="n">
         <v>0</v>
       </c>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1468,6 +1527,9 @@
       <c r="P20" t="n">
         <v>0</v>
       </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1518,6 +1580,9 @@
       <c r="P21" t="n">
         <v>0</v>
       </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1568,6 +1633,9 @@
       <c r="P22" t="n">
         <v>0</v>
       </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1618,6 +1686,9 @@
       <c r="P23" t="n">
         <v>0</v>
       </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1668,6 +1739,9 @@
       <c r="P24" t="n">
         <v>0</v>
       </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1718,6 +1792,9 @@
       <c r="P25" t="n">
         <v>1</v>
       </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1768,6 +1845,9 @@
       <c r="P26" t="n">
         <v>0</v>
       </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1818,6 +1898,9 @@
       <c r="P27" t="n">
         <v>0</v>
       </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1868,6 +1951,60 @@
       <c r="P28" t="n">
         <v>0</v>
       </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1070</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1070</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1051.900024414062</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1055.849975585938</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1055.849975585938</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I29" t="n">
+        <v>6</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>23</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/TATATECH.NS.xlsx
+++ b/stock_historical_data/1wk/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>backup</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>detect_structure</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -576,6 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -629,6 +637,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -682,6 +693,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -735,6 +749,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -788,6 +805,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -841,6 +861,9 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -894,6 +917,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -947,6 +973,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1000,6 +1029,9 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1053,6 +1085,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1106,6 +1141,9 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1159,6 +1197,9 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1212,6 +1253,9 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1265,6 +1309,9 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1318,6 +1365,9 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1371,6 +1421,9 @@
       <c r="Q17" t="n">
         <v>2</v>
       </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1424,6 +1477,9 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1477,6 +1533,9 @@
       <c r="Q19" t="n">
         <v>2</v>
       </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1530,6 +1589,9 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1583,6 +1645,9 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1636,6 +1701,9 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1689,6 +1757,9 @@
       <c r="Q23" t="n">
         <v>0</v>
       </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1742,6 +1813,9 @@
       <c r="Q24" t="n">
         <v>0</v>
       </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1795,6 +1869,9 @@
       <c r="Q25" t="n">
         <v>0</v>
       </c>
+      <c r="R25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1848,6 +1925,9 @@
       <c r="Q26" t="n">
         <v>0</v>
       </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1901,6 +1981,9 @@
       <c r="Q27" t="n">
         <v>0</v>
       </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1954,6 +2037,9 @@
       <c r="Q28" t="n">
         <v>0</v>
       </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -2004,7 +2090,12 @@
       <c r="P29" t="n">
         <v>0</v>
       </c>
-      <c r="Q29" t="inlineStr"/>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/TATATECH.NS.xlsx
+++ b/stock_historical_data/1wk/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>two_line_structure</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -576,6 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -629,6 +637,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -682,6 +693,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -735,6 +749,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -788,6 +805,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -841,6 +861,9 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -894,6 +917,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -947,6 +973,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1000,6 +1029,9 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1053,6 +1085,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1106,6 +1141,9 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1159,6 +1197,9 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1212,6 +1253,9 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1265,6 +1309,9 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1318,6 +1365,9 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1371,6 +1421,9 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
+      <c r="R17" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1424,6 +1477,9 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1477,6 +1533,9 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
+      <c r="R19" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1530,6 +1589,9 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1583,6 +1645,9 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1636,6 +1701,9 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1689,6 +1757,9 @@
       <c r="Q23" t="n">
         <v>0</v>
       </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1742,6 +1813,9 @@
       <c r="Q24" t="n">
         <v>0</v>
       </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1795,6 +1869,9 @@
       <c r="Q25" t="n">
         <v>1</v>
       </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1848,6 +1925,9 @@
       <c r="Q26" t="n">
         <v>0</v>
       </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1901,6 +1981,9 @@
       <c r="Q27" t="n">
         <v>0</v>
       </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1954,6 +2037,9 @@
       <c r="Q28" t="n">
         <v>0</v>
       </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -2007,6 +2093,63 @@
       <c r="Q29" t="n">
         <v>0</v>
       </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1061.400024414062</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1069.449951171875</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1053.900024414062</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1057.550048828125</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1057.550048828125</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I30" t="n">
+        <v>6</v>
+      </c>
+      <c r="J30" t="n">
+        <v>10</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>24</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/TATATECH.NS.xlsx
+++ b/stock_historical_data/1wk/TATATECH.NS.xlsx
@@ -2149,7 +2149,9 @@
       <c r="Q30" t="n">
         <v>0</v>
       </c>
-      <c r="R30" t="inlineStr"/>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/TATATECH.NS.xlsx
+++ b/stock_historical_data/1wk/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R30"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2153,6 +2153,114 @@
         <v>0</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1040.400024414062</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1043.900024414062</v>
+      </c>
+      <c r="D31" t="n">
+        <v>982.6500244140625</v>
+      </c>
+      <c r="E31" t="n">
+        <v>992.25</v>
+      </c>
+      <c r="F31" t="n">
+        <v>992.25</v>
+      </c>
+      <c r="G31" t="n">
+        <v>11748565</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I31" t="n">
+        <v>6</v>
+      </c>
+      <c r="J31" t="n">
+        <v>17</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>25</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B32" t="n">
+        <v>992.25</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1027.900024414062</v>
+      </c>
+      <c r="D32" t="n">
+        <v>989.75</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1021.950012207031</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1021.950012207031</v>
+      </c>
+      <c r="G32" t="n">
+        <v>4906053</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I32" t="n">
+        <v>6</v>
+      </c>
+      <c r="J32" t="n">
+        <v>24</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>26</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1wk/TATATECH.NS.xlsx
+++ b/stock_historical_data/1wk/TATATECH.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:R67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2029,7 +2029,7 @@
         <v>22</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -2085,7 +2085,7 @@
         <v>23</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -2205,7 +2205,9 @@
       <c r="Q31" t="n">
         <v>0</v>
       </c>
-      <c r="R31" t="inlineStr"/>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2259,7 +2261,1829 @@
       <c r="Q32" t="n">
         <v>0</v>
       </c>
-      <c r="R32" t="inlineStr"/>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1023.299987792969</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1029.5</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1006.200012207031</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1010.349975585938</v>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="n">
+        <v>2635618</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I33" t="n">
+        <v>7</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>27</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1014.849975585938</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1043</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1003</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1033.400024414062</v>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="n">
+        <v>5938931</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I34" t="n">
+        <v>7</v>
+      </c>
+      <c r="J34" t="n">
+        <v>8</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>28</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1040</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1043.900024414062</v>
+      </c>
+      <c r="D35" t="n">
+        <v>990</v>
+      </c>
+      <c r="E35" t="n">
+        <v>997.2000122070312</v>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="n">
+        <v>3733489</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I35" t="n">
+        <v>7</v>
+      </c>
+      <c r="J35" t="n">
+        <v>15</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>29</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B36" t="n">
+        <v>997.2000122070312</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1007.650024414062</v>
+      </c>
+      <c r="D36" t="n">
+        <v>983</v>
+      </c>
+      <c r="E36" t="n">
+        <v>999</v>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="n">
+        <v>2841264</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I36" t="n">
+        <v>7</v>
+      </c>
+      <c r="J36" t="n">
+        <v>22</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>30</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1002</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1007.349975585938</v>
+      </c>
+      <c r="D37" t="n">
+        <v>990.7999877929688</v>
+      </c>
+      <c r="E37" t="n">
+        <v>992</v>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="n">
+        <v>2092370</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I37" t="n">
+        <v>7</v>
+      </c>
+      <c r="J37" t="n">
+        <v>29</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>31</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B38" t="n">
+        <v>981</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1009.950012207031</v>
+      </c>
+      <c r="D38" t="n">
+        <v>970.0999755859375</v>
+      </c>
+      <c r="E38" t="n">
+        <v>989.6500244140625</v>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="n">
+        <v>3117411</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I38" t="n">
+        <v>8</v>
+      </c>
+      <c r="J38" t="n">
+        <v>5</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>32</v>
+      </c>
+      <c r="O38" t="n">
+        <v>2</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B39" t="n">
+        <v>985</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1012</v>
+      </c>
+      <c r="D39" t="n">
+        <v>980</v>
+      </c>
+      <c r="E39" t="n">
+        <v>999.0499877929688</v>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="n">
+        <v>2373764</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I39" t="n">
+        <v>8</v>
+      </c>
+      <c r="J39" t="n">
+        <v>12</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>33</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1007.349975585938</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1054.800048828125</v>
+      </c>
+      <c r="D40" t="n">
+        <v>996</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1036.949951171875</v>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="n">
+        <v>29886376</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I40" t="n">
+        <v>8</v>
+      </c>
+      <c r="J40" t="n">
+        <v>19</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>34</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1053</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1115</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1040</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1065.599975585938</v>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="n">
+        <v>30362074</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I41" t="n">
+        <v>8</v>
+      </c>
+      <c r="J41" t="n">
+        <v>26</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>35</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1075</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1122.900024414062</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1045.550048828125</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1112.650024414062</v>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="n">
+        <v>28122603</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I42" t="n">
+        <v>9</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>36</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1115</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1115</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1073.900024414062</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1089.699951171875</v>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="n">
+        <v>14483671</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I43" t="n">
+        <v>9</v>
+      </c>
+      <c r="J43" t="n">
+        <v>9</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>37</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1106</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1136</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1051.849975585938</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1114.699951171875</v>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="n">
+        <v>18535203</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I44" t="n">
+        <v>9</v>
+      </c>
+      <c r="J44" t="n">
+        <v>16</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>38</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1130</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1134.699951171875</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1084</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1121</v>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="n">
+        <v>10341592</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I45" t="n">
+        <v>9</v>
+      </c>
+      <c r="J45" t="n">
+        <v>23</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>39</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1115</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1118</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1047.25</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1057.449951171875</v>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="n">
+        <v>5661734</v>
+      </c>
+      <c r="H46" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I46" t="n">
+        <v>9</v>
+      </c>
+      <c r="J46" t="n">
+        <v>30</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>40</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1065</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1089.150024414062</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1016.5</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1054.599975585938</v>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="n">
+        <v>8271447</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I47" t="n">
+        <v>10</v>
+      </c>
+      <c r="J47" t="n">
+        <v>7</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>41</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1057.5</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1087.849975585938</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1042</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1060.099975585938</v>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="n">
+        <v>5096611</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I48" t="n">
+        <v>10</v>
+      </c>
+      <c r="J48" t="n">
+        <v>14</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>42</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1063.449951171875</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1074.949951171875</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1000.099975585938</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1011.450012207031</v>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="n">
+        <v>5647161</v>
+      </c>
+      <c r="H49" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I49" t="n">
+        <v>10</v>
+      </c>
+      <c r="J49" t="n">
+        <v>21</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>43</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1016</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1032</v>
+      </c>
+      <c r="D50" t="n">
+        <v>986.75</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1027.199951171875</v>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="n">
+        <v>3962290</v>
+      </c>
+      <c r="H50" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I50" t="n">
+        <v>10</v>
+      </c>
+      <c r="J50" t="n">
+        <v>28</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>44</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1029</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1038</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1002</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1004.950012207031</v>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="n">
+        <v>2453283</v>
+      </c>
+      <c r="H51" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I51" t="n">
+        <v>11</v>
+      </c>
+      <c r="J51" t="n">
+        <v>4</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>45</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1004.950012207031</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1005.650024414062</v>
+      </c>
+      <c r="D52" t="n">
+        <v>956.6500244140625</v>
+      </c>
+      <c r="E52" t="n">
+        <v>962.2999877929688</v>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="n">
+        <v>2952498</v>
+      </c>
+      <c r="H52" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I52" t="n">
+        <v>11</v>
+      </c>
+      <c r="J52" t="n">
+        <v>11</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>46</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B53" t="n">
+        <v>968</v>
+      </c>
+      <c r="C53" t="n">
+        <v>968</v>
+      </c>
+      <c r="D53" t="n">
+        <v>931</v>
+      </c>
+      <c r="E53" t="n">
+        <v>941.2000122070312</v>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="n">
+        <v>2950038</v>
+      </c>
+      <c r="H53" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I53" t="n">
+        <v>11</v>
+      </c>
+      <c r="J53" t="n">
+        <v>18</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>47</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
+      <c r="R53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B54" t="n">
+        <v>955</v>
+      </c>
+      <c r="C54" t="n">
+        <v>963</v>
+      </c>
+      <c r="D54" t="n">
+        <v>931.0999755859375</v>
+      </c>
+      <c r="E54" t="n">
+        <v>938.5</v>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="n">
+        <v>3609663</v>
+      </c>
+      <c r="H54" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I54" t="n">
+        <v>11</v>
+      </c>
+      <c r="J54" t="n">
+        <v>25</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>48</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B55" t="n">
+        <v>939.0999755859375</v>
+      </c>
+      <c r="C55" t="n">
+        <v>973.8499755859375</v>
+      </c>
+      <c r="D55" t="n">
+        <v>936.4000244140625</v>
+      </c>
+      <c r="E55" t="n">
+        <v>953.9000244140625</v>
+      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="n">
+        <v>4630685</v>
+      </c>
+      <c r="H55" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I55" t="n">
+        <v>12</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>49</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B56" t="n">
+        <v>954.5</v>
+      </c>
+      <c r="C56" t="n">
+        <v>960</v>
+      </c>
+      <c r="D56" t="n">
+        <v>935</v>
+      </c>
+      <c r="E56" t="n">
+        <v>937.5499877929688</v>
+      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="n">
+        <v>3849580</v>
+      </c>
+      <c r="H56" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I56" t="n">
+        <v>12</v>
+      </c>
+      <c r="J56" t="n">
+        <v>9</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>50</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B57" t="n">
+        <v>937</v>
+      </c>
+      <c r="C57" t="n">
+        <v>942</v>
+      </c>
+      <c r="D57" t="n">
+        <v>890</v>
+      </c>
+      <c r="E57" t="n">
+        <v>893.2999877929688</v>
+      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="n">
+        <v>4649574</v>
+      </c>
+      <c r="H57" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I57" t="n">
+        <v>12</v>
+      </c>
+      <c r="J57" t="n">
+        <v>16</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>51</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B58" t="n">
+        <v>898</v>
+      </c>
+      <c r="C58" t="n">
+        <v>922.9000244140625</v>
+      </c>
+      <c r="D58" t="n">
+        <v>883.2999877929688</v>
+      </c>
+      <c r="E58" t="n">
+        <v>898.8499755859375</v>
+      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="n">
+        <v>2586275</v>
+      </c>
+      <c r="H58" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I58" t="n">
+        <v>12</v>
+      </c>
+      <c r="J58" t="n">
+        <v>23</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>52</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B59" t="n">
+        <v>899</v>
+      </c>
+      <c r="C59" t="n">
+        <v>912.5</v>
+      </c>
+      <c r="D59" t="n">
+        <v>886</v>
+      </c>
+      <c r="E59" t="n">
+        <v>896.5999755859375</v>
+      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="n">
+        <v>2821108</v>
+      </c>
+      <c r="H59" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I59" t="n">
+        <v>12</v>
+      </c>
+      <c r="J59" t="n">
+        <v>30</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>1</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B60" t="n">
+        <v>897.9500122070312</v>
+      </c>
+      <c r="C60" t="n">
+        <v>912</v>
+      </c>
+      <c r="D60" t="n">
+        <v>828.2999877929688</v>
+      </c>
+      <c r="E60" t="n">
+        <v>834.1500244140625</v>
+      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="n">
+        <v>5823882</v>
+      </c>
+      <c r="H60" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>6</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>2</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
+      <c r="R60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B61" t="n">
+        <v>830</v>
+      </c>
+      <c r="C61" t="n">
+        <v>834.4000244140625</v>
+      </c>
+      <c r="D61" t="n">
+        <v>790.5499877929688</v>
+      </c>
+      <c r="E61" t="n">
+        <v>807.7000122070312</v>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="n">
+        <v>5426299</v>
+      </c>
+      <c r="H61" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>13</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>3</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
+      <c r="R61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B62" t="n">
+        <v>810.0499877929688</v>
+      </c>
+      <c r="C62" t="n">
+        <v>841.2999877929688</v>
+      </c>
+      <c r="D62" t="n">
+        <v>781</v>
+      </c>
+      <c r="E62" t="n">
+        <v>782.9000244140625</v>
+      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="n">
+        <v>4788533</v>
+      </c>
+      <c r="H62" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I62" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>20</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>4</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B63" t="n">
+        <v>780</v>
+      </c>
+      <c r="C63" t="n">
+        <v>796.75</v>
+      </c>
+      <c r="D63" t="n">
+        <v>737.0999755859375</v>
+      </c>
+      <c r="E63" t="n">
+        <v>775.5499877929688</v>
+      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="n">
+        <v>4500123</v>
+      </c>
+      <c r="H63" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>27</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>5</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
+      <c r="R63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B64" t="n">
+        <v>770.25</v>
+      </c>
+      <c r="C64" t="n">
+        <v>803</v>
+      </c>
+      <c r="D64" t="n">
+        <v>758.3499755859375</v>
+      </c>
+      <c r="E64" t="n">
+        <v>776.5999755859375</v>
+      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="n">
+        <v>2784925</v>
+      </c>
+      <c r="H64" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I64" t="n">
+        <v>2</v>
+      </c>
+      <c r="J64" t="n">
+        <v>3</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>6</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
+      <c r="R64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B65" t="n">
+        <v>780</v>
+      </c>
+      <c r="C65" t="n">
+        <v>786.4000244140625</v>
+      </c>
+      <c r="D65" t="n">
+        <v>718</v>
+      </c>
+      <c r="E65" t="n">
+        <v>733.8499755859375</v>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="n">
+        <v>3190114</v>
+      </c>
+      <c r="H65" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I65" t="n">
+        <v>2</v>
+      </c>
+      <c r="J65" t="n">
+        <v>10</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>7</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
+      <c r="R65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B66" t="n">
+        <v>731</v>
+      </c>
+      <c r="C66" t="n">
+        <v>764</v>
+      </c>
+      <c r="D66" t="n">
+        <v>711.2000122070312</v>
+      </c>
+      <c r="E66" t="n">
+        <v>742.5499877929688</v>
+      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="n">
+        <v>5426858</v>
+      </c>
+      <c r="H66" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I66" t="n">
+        <v>2</v>
+      </c>
+      <c r="J66" t="n">
+        <v>17</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>8</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B67" t="n">
+        <v>740</v>
+      </c>
+      <c r="C67" t="n">
+        <v>741</v>
+      </c>
+      <c r="D67" t="n">
+        <v>664.4500122070312</v>
+      </c>
+      <c r="E67" t="n">
+        <v>671.75</v>
+      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="n">
+        <v>8711294</v>
+      </c>
+      <c r="H67" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I67" t="n">
+        <v>2</v>
+      </c>
+      <c r="J67" t="n">
+        <v>24</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>9</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/TATATECH.NS.xlsx
+++ b/stock_historical_data/1wk/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R67"/>
+  <dimension ref="A1:R71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -2094,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -2315,7 +2315,9 @@
       <c r="Q33" t="n">
         <v>0</v>
       </c>
-      <c r="R33" t="inlineStr"/>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2367,7 +2369,9 @@
       <c r="Q34" t="n">
         <v>0</v>
       </c>
-      <c r="R34" t="inlineStr"/>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2419,7 +2423,9 @@
       <c r="Q35" t="n">
         <v>1</v>
       </c>
-      <c r="R35" t="inlineStr"/>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2471,7 +2477,9 @@
       <c r="Q36" t="n">
         <v>0</v>
       </c>
-      <c r="R36" t="inlineStr"/>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2523,7 +2531,9 @@
       <c r="Q37" t="n">
         <v>0</v>
       </c>
-      <c r="R37" t="inlineStr"/>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2575,7 +2585,9 @@
       <c r="Q38" t="n">
         <v>0</v>
       </c>
-      <c r="R38" t="inlineStr"/>
+      <c r="R38" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2627,7 +2639,9 @@
       <c r="Q39" t="n">
         <v>0</v>
       </c>
-      <c r="R39" t="inlineStr"/>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2679,7 +2693,9 @@
       <c r="Q40" t="n">
         <v>0</v>
       </c>
-      <c r="R40" t="inlineStr"/>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2731,7 +2747,9 @@
       <c r="Q41" t="n">
         <v>0</v>
       </c>
-      <c r="R41" t="inlineStr"/>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2783,7 +2801,9 @@
       <c r="Q42" t="n">
         <v>0</v>
       </c>
-      <c r="R42" t="inlineStr"/>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2835,7 +2855,9 @@
       <c r="Q43" t="n">
         <v>0</v>
       </c>
-      <c r="R43" t="inlineStr"/>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2887,7 +2909,9 @@
       <c r="Q44" t="n">
         <v>0</v>
       </c>
-      <c r="R44" t="inlineStr"/>
+      <c r="R44" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2939,7 +2963,9 @@
       <c r="Q45" t="n">
         <v>0</v>
       </c>
-      <c r="R45" t="inlineStr"/>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2991,7 +3017,9 @@
       <c r="Q46" t="n">
         <v>0</v>
       </c>
-      <c r="R46" t="inlineStr"/>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -3043,7 +3071,9 @@
       <c r="Q47" t="n">
         <v>0</v>
       </c>
-      <c r="R47" t="inlineStr"/>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -3095,7 +3125,9 @@
       <c r="Q48" t="n">
         <v>0</v>
       </c>
-      <c r="R48" t="inlineStr"/>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -3147,7 +3179,9 @@
       <c r="Q49" t="n">
         <v>0</v>
       </c>
-      <c r="R49" t="inlineStr"/>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -3199,7 +3233,9 @@
       <c r="Q50" t="n">
         <v>0</v>
       </c>
-      <c r="R50" t="inlineStr"/>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3251,7 +3287,9 @@
       <c r="Q51" t="n">
         <v>0</v>
       </c>
-      <c r="R51" t="inlineStr"/>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3303,7 +3341,9 @@
       <c r="Q52" t="n">
         <v>0</v>
       </c>
-      <c r="R52" t="inlineStr"/>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3355,7 +3395,9 @@
       <c r="Q53" t="n">
         <v>0</v>
       </c>
-      <c r="R53" t="inlineStr"/>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3407,7 +3449,9 @@
       <c r="Q54" t="n">
         <v>0</v>
       </c>
-      <c r="R54" t="inlineStr"/>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3459,7 +3503,9 @@
       <c r="Q55" t="n">
         <v>0</v>
       </c>
-      <c r="R55" t="inlineStr"/>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3511,7 +3557,9 @@
       <c r="Q56" t="n">
         <v>0</v>
       </c>
-      <c r="R56" t="inlineStr"/>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3563,7 +3611,9 @@
       <c r="Q57" t="n">
         <v>0</v>
       </c>
-      <c r="R57" t="inlineStr"/>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3615,7 +3665,9 @@
       <c r="Q58" t="n">
         <v>0</v>
       </c>
-      <c r="R58" t="inlineStr"/>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3667,7 +3719,9 @@
       <c r="Q59" t="n">
         <v>0</v>
       </c>
-      <c r="R59" t="inlineStr"/>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3719,7 +3773,9 @@
       <c r="Q60" t="n">
         <v>0</v>
       </c>
-      <c r="R60" t="inlineStr"/>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3771,7 +3827,9 @@
       <c r="Q61" t="n">
         <v>0</v>
       </c>
-      <c r="R61" t="inlineStr"/>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3823,7 +3881,9 @@
       <c r="Q62" t="n">
         <v>0</v>
       </c>
-      <c r="R62" t="inlineStr"/>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3875,7 +3935,9 @@
       <c r="Q63" t="n">
         <v>0</v>
       </c>
-      <c r="R63" t="inlineStr"/>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3927,7 +3989,9 @@
       <c r="Q64" t="n">
         <v>0</v>
       </c>
-      <c r="R64" t="inlineStr"/>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3979,7 +4043,9 @@
       <c r="Q65" t="n">
         <v>0</v>
       </c>
-      <c r="R65" t="inlineStr"/>
+      <c r="R65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -4031,7 +4097,9 @@
       <c r="Q66" t="n">
         <v>0</v>
       </c>
-      <c r="R66" t="inlineStr"/>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -4083,7 +4151,217 @@
       <c r="Q67" t="n">
         <v>0</v>
       </c>
-      <c r="R67" t="inlineStr"/>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B68" t="n">
+        <v>675.0999755859375</v>
+      </c>
+      <c r="C68" t="n">
+        <v>684.4000244140625</v>
+      </c>
+      <c r="D68" t="n">
+        <v>634.5499877929688</v>
+      </c>
+      <c r="E68" t="n">
+        <v>671.5499877929688</v>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="n">
+        <v>8511107</v>
+      </c>
+      <c r="H68" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I68" t="n">
+        <v>3</v>
+      </c>
+      <c r="J68" t="n">
+        <v>3</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>10</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0</v>
+      </c>
+      <c r="R68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B69" t="n">
+        <v>674.4500122070312</v>
+      </c>
+      <c r="C69" t="n">
+        <v>676</v>
+      </c>
+      <c r="D69" t="n">
+        <v>630.2000122070312</v>
+      </c>
+      <c r="E69" t="n">
+        <v>636.7999877929688</v>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="n">
+        <v>5296119</v>
+      </c>
+      <c r="H69" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I69" t="n">
+        <v>3</v>
+      </c>
+      <c r="J69" t="n">
+        <v>10</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>11</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
+      <c r="R69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B70" t="n">
+        <v>636.7999877929688</v>
+      </c>
+      <c r="C70" t="n">
+        <v>706.2999877929688</v>
+      </c>
+      <c r="D70" t="n">
+        <v>626.6500244140625</v>
+      </c>
+      <c r="E70" t="n">
+        <v>685.75</v>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="n">
+        <v>10899590</v>
+      </c>
+      <c r="H70" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I70" t="n">
+        <v>3</v>
+      </c>
+      <c r="J70" t="n">
+        <v>17</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>12</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0</v>
+      </c>
+      <c r="R70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B71" t="n">
+        <v>689.9500122070312</v>
+      </c>
+      <c r="C71" t="n">
+        <v>728.75</v>
+      </c>
+      <c r="D71" t="n">
+        <v>673.5499877929688</v>
+      </c>
+      <c r="E71" t="n">
+        <v>679.9000244140625</v>
+      </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="n">
+        <v>14480519</v>
+      </c>
+      <c r="H71" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I71" t="n">
+        <v>3</v>
+      </c>
+      <c r="J71" t="n">
+        <v>24</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>13</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0</v>
+      </c>
+      <c r="R71" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
